--- a/Data/ChIRPseq_sample_information_LeRoch_27April21.xlsx
+++ b/Data/ChIRPseq_sample_information_LeRoch_27April21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhristov6/Desktop/Code/plasmo-lncrna/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhristov6/Desktop/Code/pfal-lncrna/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411EB738-74E8-444B-8DF9-BB78BB8A9C6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB71DC6F-D515-FC4C-897C-BE37069E4527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="460" windowWidth="40740" windowHeight="24740" xr2:uid="{FE96C8B3-6CAC-FE42-BC29-41C1A154BFF0}"/>
+    <workbookView xWindow="11000" yWindow="460" windowWidth="40740" windowHeight="24740" xr2:uid="{FE96C8B3-6CAC-FE42-BC29-41C1A154BFF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -818,17 +818,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1357,17 +1354,18 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I43"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57.5" style="1" customWidth="1"/>
@@ -1376,41 +1374,41 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1436,7 +1434,7 @@
       <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
@@ -1445,7 +1443,7 @@
       <c r="K2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1471,7 +1469,7 @@
       <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
@@ -1483,7 +1481,7 @@
       <c r="K3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1507,7 +1505,7 @@
       <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
@@ -1542,7 +1540,7 @@
       <c r="G5" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
@@ -1577,7 +1575,7 @@
       <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>6</v>
       </c>
       <c r="I6" t="s">
@@ -1586,7 +1584,7 @@
       <c r="K6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1612,7 +1610,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
@@ -1621,16 +1619,16 @@
       <c r="K7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D8" t="s">
@@ -1645,13 +1643,13 @@
       <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>102</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1659,13 +1657,13 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
@@ -1680,7 +1678,7 @@
       <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I9" t="s">
@@ -1691,13 +1689,13 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
@@ -1706,13 +1704,13 @@
       <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>6</v>
       </c>
       <c r="I10" t="s">
@@ -1721,18 +1719,18 @@
       <c r="K10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
@@ -1741,13 +1739,13 @@
       <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>6</v>
       </c>
       <c r="I11" t="s">
@@ -1756,7 +1754,7 @@
       <c r="K11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1780,7 +1778,7 @@
       <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
       <c r="I12" t="s">
@@ -1815,7 +1813,7 @@
       <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13" t="s">
@@ -1850,7 +1848,7 @@
       <c r="G14" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -1859,7 +1857,7 @@
       <c r="K14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1885,7 +1883,7 @@
       <c r="G15" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>6</v>
       </c>
       <c r="I15" t="s">
@@ -1894,16 +1892,16 @@
       <c r="K15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
@@ -1918,7 +1916,7 @@
       <c r="G16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s">
         <v>11</v>
       </c>
       <c r="I16" t="s">
@@ -1932,13 +1930,13 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
@@ -1953,7 +1951,7 @@
       <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>11</v>
       </c>
       <c r="I17" t="s">
@@ -1988,7 +1986,7 @@
       <c r="G18" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s">
         <v>6</v>
       </c>
       <c r="I18" t="s">
@@ -1997,7 +1995,7 @@
       <c r="K18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2023,7 +2021,7 @@
       <c r="G19" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" t="s">
         <v>6</v>
       </c>
       <c r="I19" t="s">
@@ -2032,13 +2030,13 @@
       <c r="K19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>63</v>
       </c>
       <c r="C20" t="s">
@@ -2056,7 +2054,7 @@
       <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>6</v>
       </c>
       <c r="I20" t="s">
@@ -2065,7 +2063,7 @@
       <c r="K20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2091,7 +2089,7 @@
       <c r="G21" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s">
         <v>11</v>
       </c>
       <c r="I21" t="s">
@@ -2103,13 +2101,13 @@
       <c r="K21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>64</v>
       </c>
       <c r="C22" t="s">
@@ -2127,7 +2125,7 @@
       <c r="G22" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s">
         <v>6</v>
       </c>
       <c r="I22" t="s">
@@ -2136,7 +2134,7 @@
       <c r="K22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2160,7 +2158,7 @@
       <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I23" t="s">
@@ -2172,7 +2170,7 @@
       <c r="K23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="14"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2196,7 +2194,7 @@
       <c r="G24" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I24" t="s">
@@ -2208,7 +2206,7 @@
       <c r="K24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2234,7 +2232,7 @@
       <c r="G25" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I25" t="s">
@@ -2246,7 +2244,7 @@
       <c r="K25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2270,7 +2268,7 @@
       <c r="G26" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I26" t="s">
@@ -2282,7 +2280,7 @@
       <c r="K26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2306,7 +2304,7 @@
       <c r="G27" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I27" t="s">
@@ -2318,7 +2316,7 @@
       <c r="K27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2342,16 +2340,16 @@
       <c r="G28" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" t="s">
         <v>160</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2377,16 +2375,16 @@
       <c r="G29" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" t="s">
         <v>161</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L29" s="15"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2410,16 +2408,16 @@
       <c r="G30" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" t="s">
         <v>162</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L30" s="15"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2443,16 +2441,16 @@
       <c r="G31" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" t="s">
         <v>163</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2476,16 +2474,16 @@
       <c r="G32" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" t="s">
         <v>164</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="15"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2509,19 +2507,19 @@
       <c r="G33" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" t="s">
         <v>165</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" t="s">
         <v>132</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2547,19 +2545,19 @@
       <c r="G34" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" t="s">
         <v>166</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="15"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="36" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B36"/>
@@ -2567,16 +2565,16 @@
       <c r="D36"/>
       <c r="E36"/>
       <c r="G36"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
@@ -2585,13 +2583,13 @@
       <c r="E37" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G37" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I37" t="s">
@@ -2600,18 +2598,18 @@
       <c r="K37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D38" t="s">
@@ -2620,13 +2618,13 @@
       <c r="E38" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G38" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I38" t="s">
@@ -2635,18 +2633,18 @@
       <c r="K38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D39" t="s">
@@ -2655,13 +2653,13 @@
       <c r="E39" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G39" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I39" t="s">
@@ -2670,16 +2668,16 @@
       <c r="K39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L39" s="13"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40" t="s">
@@ -2688,13 +2686,13 @@
       <c r="E40" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G40" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" t="s">
         <v>11</v>
       </c>
       <c r="I40" t="s">
@@ -2706,18 +2704,18 @@
       <c r="K40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D41" t="s">
@@ -2726,13 +2724,13 @@
       <c r="E41" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G41" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I41" t="s">
@@ -2741,7 +2739,7 @@
       <c r="K41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L41" s="13"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -2759,13 +2757,13 @@
       <c r="E42" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I42" t="s">
@@ -2774,7 +2772,7 @@
       <c r="K42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2794,13 +2792,13 @@
       <c r="E43" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G43" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I43" t="s">
@@ -2809,7 +2807,7 @@
       <c r="K43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L43" s="13"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44"/>
